--- a/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1878</v>
+        <v>2727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11243</v>
+        <v>12303</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04869051729108675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01632965444471848</v>
+        <v>0.02371693539348084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09777442371002797</v>
+        <v>0.1069940079537747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>14550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8281</v>
+        <v>7892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23752</v>
+        <v>23296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09729973118456112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0553789142265786</v>
+        <v>0.05277635514647976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.158841448787377</v>
+        <v>0.1557867950446696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>20149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12594</v>
+        <v>12848</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29628</v>
+        <v>30850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0761692707208607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04760854307826916</v>
+        <v>0.0485686033582677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1120050485527512</v>
+        <v>0.1166262412239736</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8183</v>
+        <v>8182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22687</v>
+        <v>21599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1203658351334159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0711655239861661</v>
+        <v>0.07115093357897033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1973007661697403</v>
+        <v>0.1878347565608589</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -836,19 +836,19 @@
         <v>17985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11532</v>
+        <v>11145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27799</v>
+        <v>27444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1202726032778343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07712142688279641</v>
+        <v>0.07452810424513938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1859024556017959</v>
+        <v>0.1835299936961123</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -857,19 +857,19 @@
         <v>31826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22461</v>
+        <v>22586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43524</v>
+        <v>43762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1203131312329385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08490926884571594</v>
+        <v>0.08538472677009153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.164537041127971</v>
+        <v>0.1654362794954783</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>95549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87075</v>
+        <v>86145</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102588</v>
+        <v>101808</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8309436475754974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7572433675179497</v>
+        <v>0.74915461824958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8921569708337094</v>
+        <v>0.8853754997398086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -907,19 +907,19 @@
         <v>117000</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105794</v>
+        <v>106233</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126330</v>
+        <v>126273</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7824276655376046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7074895003278991</v>
+        <v>0.7104220473604006</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8448181995311012</v>
+        <v>0.8444403679130773</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>219</v>
@@ -928,19 +928,19 @@
         <v>212550</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198458</v>
+        <v>197084</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>224903</v>
+        <v>223810</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8035175980462008</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.750244658201939</v>
+        <v>0.745051393608367</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8502174013492875</v>
+        <v>0.8460864353896946</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>8576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4007</v>
+        <v>3893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15026</v>
+        <v>15672</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0587811786655499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02746934268513467</v>
+        <v>0.02668239587902022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.102995427936148</v>
+        <v>0.1074275400641957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1053,19 +1053,19 @@
         <v>13173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7442</v>
+        <v>6690</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22743</v>
+        <v>22201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07210729730384388</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04073928321464455</v>
+        <v>0.03662197326881596</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.124498323303603</v>
+        <v>0.1215285582844385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -1074,19 +1074,19 @@
         <v>21748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13724</v>
+        <v>13922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34564</v>
+        <v>33011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06619032024682676</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04176980424483189</v>
+        <v>0.04237056297503719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1051951515533387</v>
+        <v>0.1004702780211962</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>14392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7856</v>
+        <v>8539</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22736</v>
+        <v>23141</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09864916556850412</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05385064878937468</v>
+        <v>0.05853197349159279</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1558458541675863</v>
+        <v>0.158619293159049</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1124,19 +1124,19 @@
         <v>33121</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23546</v>
+        <v>22576</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44950</v>
+        <v>43612</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1813072826691146</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1288934508392072</v>
+        <v>0.1235831006691148</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2460569763587465</v>
+        <v>0.2387332704446912</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -1145,19 +1145,19 @@
         <v>47513</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35985</v>
+        <v>36712</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61251</v>
+        <v>63229</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1446059598206817</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.109519186681731</v>
+        <v>0.111733773278115</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1864183258277364</v>
+        <v>0.1924371816346486</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>122922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113976</v>
+        <v>113405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130582</v>
+        <v>130772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.842569655765946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7812513252492717</v>
+        <v>0.7773405329520353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8950788863560249</v>
+        <v>0.8963791008149562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1195,19 +1195,19 @@
         <v>136386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122598</v>
+        <v>123576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147786</v>
+        <v>148006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7465854200270415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6711060867932694</v>
+        <v>0.6764599595757381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8089898716506606</v>
+        <v>0.8101934033177223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -1216,19 +1216,19 @@
         <v>259307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243190</v>
+        <v>242675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>272885</v>
+        <v>272781</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7892037199324915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7401514746590245</v>
+        <v>0.738582944689812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.830529278779496</v>
+        <v>0.8302105463966477</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6141</v>
+        <v>6876</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01870227189693929</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05883974158829782</v>
+        <v>0.06588269681306375</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1341,19 +1341,19 @@
         <v>9488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4468</v>
+        <v>4445</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17030</v>
+        <v>16413</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0698413298456888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03289165819597945</v>
+        <v>0.0327188615232967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1253553142630112</v>
+        <v>0.1208147940132635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>11440</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5909</v>
+        <v>6059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19148</v>
+        <v>19648</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04762245728124022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02459968414801717</v>
+        <v>0.02522064426120182</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07970974427305676</v>
+        <v>0.08178928056966196</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>5280</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11878</v>
+        <v>12177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05059261233702686</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01770427840333874</v>
+        <v>0.01762603720565777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1138017520807577</v>
+        <v>0.1166746924164629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1412,19 +1412,19 @@
         <v>12706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6885</v>
+        <v>6818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21416</v>
+        <v>20160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09353166376279225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05068371727603781</v>
+        <v>0.05018452289376837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1576433990900611</v>
+        <v>0.1483981906564455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1433,19 +1433,19 @@
         <v>17987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11060</v>
+        <v>10610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27067</v>
+        <v>27676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07487552597035342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04604228883925772</v>
+        <v>0.04416890405401053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1126743176402764</v>
+        <v>0.1152112052748378</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>97139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89397</v>
+        <v>90695</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100687</v>
+        <v>101520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9307051157660339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8565323635715796</v>
+        <v>0.8689645795414118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9647025060148487</v>
+        <v>0.9726836963254809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -1483,19 +1483,19 @@
         <v>113656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104087</v>
+        <v>103120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121394</v>
+        <v>121028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.836627006391519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7661896765309617</v>
+        <v>0.759071659606561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8935899784826538</v>
+        <v>0.89089087148929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -1504,19 +1504,19 @@
         <v>210794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>200054</v>
+        <v>199413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219536</v>
+        <v>220238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8775020167484063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8327925023831479</v>
+        <v>0.8301242076185877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9138928110621405</v>
+        <v>0.9168140493229024</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>4158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9135</v>
+        <v>9165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0303039763522157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01189713081041081</v>
+        <v>0.01189760920342043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06657363194348537</v>
+        <v>0.06679182088520315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1629,19 +1629,19 @@
         <v>18046</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10468</v>
+        <v>10375</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28069</v>
+        <v>27249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08643819753157993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05013906888238639</v>
+        <v>0.04969222083545199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1344450035210897</v>
+        <v>0.1305153888975296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1650,19 +1650,19 @@
         <v>22205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14138</v>
+        <v>13970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32014</v>
+        <v>32214</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06417603741271591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04086323395440331</v>
+        <v>0.0403763330017101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09252742550608513</v>
+        <v>0.09310440686394222</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>6653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3216</v>
+        <v>3268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12057</v>
+        <v>11725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0484841147349933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02343962845846609</v>
+        <v>0.02381304325976508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08786859305175322</v>
+        <v>0.085448609212599</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1700,19 +1700,19 @@
         <v>30935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21755</v>
+        <v>21090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42147</v>
+        <v>41837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1481729889539901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.10420447026841</v>
+        <v>0.1010187312987069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2018770310416726</v>
+        <v>0.2003885062713505</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -1721,19 +1721,19 @@
         <v>37588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27185</v>
+        <v>26824</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50906</v>
+        <v>49364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.108637574846411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07857105449092303</v>
+        <v>0.0775273909979273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1471288722470975</v>
+        <v>0.1426711467474413</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>126406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119765</v>
+        <v>120123</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>131309</v>
+        <v>130754</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.921211908912791</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8728160217277119</v>
+        <v>0.8754268240921853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9569472030900792</v>
+        <v>0.9528969865254989</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>155</v>
@@ -1771,19 +1771,19 @@
         <v>159796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>147453</v>
+        <v>147519</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>172360</v>
+        <v>172343</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7653888135144299</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7062705899791253</v>
+        <v>0.7065859741983216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8255676245478668</v>
+        <v>0.8254892888608791</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>298</v>
@@ -1792,19 +1792,19 @@
         <v>286202</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>272155</v>
+        <v>270776</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>300403</v>
+        <v>299268</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8271863877408731</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7865867646947561</v>
+        <v>0.7826022421023809</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8682283920923448</v>
+        <v>0.8649485580011528</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>20285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13043</v>
+        <v>13707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29350</v>
+        <v>30249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04037007294722576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02595790127949391</v>
+        <v>0.02727975918907561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05841162013131979</v>
+        <v>0.06020159891334523</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -1917,19 +1917,19 @@
         <v>55257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41050</v>
+        <v>42509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72117</v>
+        <v>73004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08163876367045232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06064990420222593</v>
+        <v>0.06280541976522044</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1065495363373529</v>
+        <v>0.1078591556710384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>73</v>
@@ -1938,19 +1938,19 @@
         <v>75541</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59602</v>
+        <v>58788</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94069</v>
+        <v>92831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06405547404745575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05053981157945576</v>
+        <v>0.04984994358657179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07976608851931895</v>
+        <v>0.07871643945211088</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>40166</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29083</v>
+        <v>29398</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54246</v>
+        <v>53924</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07993735507681454</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0578807022030773</v>
+        <v>0.05850785438250945</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1079602621196252</v>
+        <v>0.1073185004957643</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>88</v>
@@ -1988,19 +1988,19 @@
         <v>94748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76619</v>
+        <v>78046</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>113785</v>
+        <v>114321</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1399847463091624</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1132000463322732</v>
+        <v>0.1153090662107757</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1681117676071608</v>
+        <v>0.1689037662487529</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>130</v>
@@ -2009,19 +2009,19 @@
         <v>134913</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>113567</v>
+        <v>112857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>157792</v>
+        <v>157902</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1144004437146165</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09629962637654239</v>
+        <v>0.09569746602334878</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1338007787114317</v>
+        <v>0.1338940362963451</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>442016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>426540</v>
+        <v>426991</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>455207</v>
+        <v>454178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8796925719759597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8488941350133183</v>
+        <v>0.8497902315861281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9059458618658085</v>
+        <v>0.9038975820684862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>522</v>
@@ -2059,19 +2059,19 @@
         <v>526838</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>502623</v>
+        <v>504644</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>546689</v>
+        <v>548216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7783764900203852</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7426001766360397</v>
+        <v>0.7455857230946255</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8077049347681514</v>
+        <v>0.8099618304640137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>981</v>
@@ -2080,19 +2080,19 @@
         <v>968854</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>940898</v>
+        <v>941056</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>996459</v>
+        <v>996341</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8215440822379277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7978392509410759</v>
+        <v>0.7979730295827008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8449519285314004</v>
+        <v>0.8448521907156873</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>9087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4786</v>
+        <v>4840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15838</v>
+        <v>16039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06511665424986264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03430011159231516</v>
+        <v>0.0346869971334997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1134965403465696</v>
+        <v>0.1149382578854967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2445,19 +2445,19 @@
         <v>24367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16109</v>
+        <v>16101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35454</v>
+        <v>34504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1460980674201941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09658623196284652</v>
+        <v>0.09653917607920506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2125683465106661</v>
+        <v>0.206875404474982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2466,19 +2466,19 @@
         <v>33454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23838</v>
+        <v>23012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45511</v>
+        <v>45238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.109207803395941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07781729277854185</v>
+        <v>0.07511975431404763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1485664676735903</v>
+        <v>0.1476757818325206</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>14006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7612</v>
+        <v>7359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24096</v>
+        <v>23343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1003645477496608</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05454513631099369</v>
+        <v>0.05273429431672991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1726759675948362</v>
+        <v>0.1672767829907333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -2516,19 +2516,19 @@
         <v>28279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18945</v>
+        <v>19708</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39969</v>
+        <v>39395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1695516231730116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1135897678131631</v>
+        <v>0.1181609473230359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.239643685581146</v>
+        <v>0.2361984941218901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -2537,19 +2537,19 @@
         <v>42285</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31166</v>
+        <v>30976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56703</v>
+        <v>56752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1380341504652323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1017397492120424</v>
+        <v>0.1011195244450787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1851003363955899</v>
+        <v>0.185263218839794</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>116455</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105837</v>
+        <v>106603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124884</v>
+        <v>124945</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8345187980004766</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.758431601014365</v>
+        <v>0.7639231680829623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8949222498537313</v>
+        <v>0.8953626556031861</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>109</v>
@@ -2587,19 +2587,19 @@
         <v>114141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101017</v>
+        <v>102826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125460</v>
+        <v>127126</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6843503094067943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.605663101162348</v>
+        <v>0.6165082273751125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7522179479224983</v>
+        <v>0.7622042785166303</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>217</v>
@@ -2608,19 +2608,19 @@
         <v>230595</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>215121</v>
+        <v>214072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245396</v>
+        <v>245463</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7527580461388267</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7022441495460803</v>
+        <v>0.6988187791749536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8010743245662658</v>
+        <v>0.8012925849929269</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>19651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12484</v>
+        <v>12762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30394</v>
+        <v>29925</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1268777672378273</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08060589502594982</v>
+        <v>0.08240181914305536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1962428944287502</v>
+        <v>0.1932178907573579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -2733,19 +2733,19 @@
         <v>40384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29270</v>
+        <v>29970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53009</v>
+        <v>54197</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2109712428502583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1529107919915677</v>
+        <v>0.1565688213259734</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2769243520837361</v>
+        <v>0.2831289877828306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -2754,19 +2754,19 @@
         <v>60035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45988</v>
+        <v>46617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76457</v>
+        <v>74707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1733613425114261</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1328000883097148</v>
+        <v>0.1346139873150115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2207845795381856</v>
+        <v>0.2157312874523182</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>17456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9926</v>
+        <v>10064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26828</v>
+        <v>27898</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1127098005545749</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06408691849699595</v>
+        <v>0.06497707052193802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1732204856585706</v>
+        <v>0.180126893593869</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -2804,19 +2804,19 @@
         <v>24373</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16694</v>
+        <v>15839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36343</v>
+        <v>34280</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1273274132703813</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08721136454150968</v>
+        <v>0.082745321116495</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1898601573154916</v>
+        <v>0.179084582761564</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -2825,19 +2825,19 @@
         <v>41829</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>29578</v>
+        <v>30743</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55991</v>
+        <v>55413</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1207898435786863</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08541181966128135</v>
+        <v>0.08877673677260661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1616856941852695</v>
+        <v>0.1600146387353589</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>117771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106044</v>
+        <v>105335</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128008</v>
+        <v>127697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7604124322075978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6846942527483135</v>
+        <v>0.6801161034894448</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8265098750829843</v>
+        <v>0.8245020787484308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -2875,19 +2875,19 @@
         <v>126663</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112829</v>
+        <v>113446</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139850</v>
+        <v>139715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6617013438793604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.58943178030076</v>
+        <v>0.5926542123166738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7305929992418285</v>
+        <v>0.7298893334534947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -2896,19 +2896,19 @@
         <v>244434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>226054</v>
+        <v>227016</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260672</v>
+        <v>261033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7058488139098876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6527719298773871</v>
+        <v>0.6555504192643619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7527389339874052</v>
+        <v>0.7537809132198221</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>10748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5214</v>
+        <v>4394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20530</v>
+        <v>19870</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1037450757096897</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05033023495527732</v>
+        <v>0.04241198246470039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1981705339915602</v>
+        <v>0.1918027268278874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -3021,19 +3021,19 @@
         <v>29480</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20729</v>
+        <v>19909</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40474</v>
+        <v>40658</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2090487603532127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1469953681332399</v>
+        <v>0.1411816735790435</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.287011696957167</v>
+        <v>0.2883154547515158</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>34</v>
@@ -3042,19 +3042,19 @@
         <v>40228</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29635</v>
+        <v>28591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54710</v>
+        <v>53749</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.164451374152171</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1211497742718615</v>
+        <v>0.1168825675106955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2236555153019901</v>
+        <v>0.2197259993182252</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>10469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5377</v>
+        <v>5325</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17551</v>
+        <v>18557</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1010514842659355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05190391999654199</v>
+        <v>0.051399987948997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1694172699398141</v>
+        <v>0.1791228702051453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3092,19 +3092,19 @@
         <v>17160</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10680</v>
+        <v>9568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26787</v>
+        <v>26421</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1216873450011323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07573172240513575</v>
+        <v>0.06784877637803235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1899530457413736</v>
+        <v>0.1873601867004434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -3113,19 +3113,19 @@
         <v>27629</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19415</v>
+        <v>18586</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39581</v>
+        <v>37950</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1129478079762511</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07937003915005296</v>
+        <v>0.07597819863541709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1618073677450993</v>
+        <v>0.1551414636435378</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>82381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71624</v>
+        <v>72235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89616</v>
+        <v>90744</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7952034400243748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6913634197448252</v>
+        <v>0.6972654918600365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8650389263042954</v>
+        <v>0.8759216560631371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -3163,19 +3163,19 @@
         <v>94379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81667</v>
+        <v>82392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105037</v>
+        <v>106206</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6692638946456551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5791226586213883</v>
+        <v>0.584262985767084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7448438988287007</v>
+        <v>0.7531331207016253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -3184,19 +3184,19 @@
         <v>176760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159485</v>
+        <v>162317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>189516</v>
+        <v>191208</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7226008178715779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6519784299671314</v>
+        <v>0.6635563083280095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7747457589277474</v>
+        <v>0.781662391437134</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>11167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6111</v>
+        <v>6013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19186</v>
+        <v>19743</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06909477476952916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03781261931859838</v>
+        <v>0.03720849077350948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1187174606825781</v>
+        <v>0.1221627127842727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -3309,19 +3309,19 @@
         <v>17773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10653</v>
+        <v>11385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27262</v>
+        <v>27388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07291590880213648</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04370371653950162</v>
+        <v>0.046707728834453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1118434617511097</v>
+        <v>0.1123613311725134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3330,19 +3330,19 @@
         <v>28940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19954</v>
+        <v>19492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40408</v>
+        <v>40344</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07139246863699511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04922575031177279</v>
+        <v>0.04808588393980004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09968402935253697</v>
+        <v>0.09952495221649538</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>18563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10688</v>
+        <v>11006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28556</v>
+        <v>29083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1148583461108683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06613129587200209</v>
+        <v>0.06810115297121973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1766934076838408</v>
+        <v>0.1799560629861799</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -3380,19 +3380,19 @@
         <v>33094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22820</v>
+        <v>23402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45071</v>
+        <v>45546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1357693293534294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09362219794222144</v>
+        <v>0.09600967392176664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1849060416359672</v>
+        <v>0.1868555609362011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -3401,19 +3401,19 @@
         <v>51656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39139</v>
+        <v>38459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65903</v>
+        <v>66550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1274323719233917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0965520892429137</v>
+        <v>0.09487632261777093</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1625788082558201</v>
+        <v>0.1641736143353835</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>131884</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>120108</v>
+        <v>119994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140647</v>
+        <v>140953</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8160468791196025</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.743185527942901</v>
+        <v>0.7424779211985462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8702719030293656</v>
+        <v>0.8721666525225265</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>183</v>
@@ -3451,19 +3451,19 @@
         <v>192883</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>180050</v>
+        <v>178648</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>204667</v>
+        <v>203593</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7913147618444342</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7386681387927179</v>
+        <v>0.7329154986945949</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8396605328013262</v>
+        <v>0.8352540373892056</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>303</v>
@@ -3472,19 +3472,19 @@
         <v>324767</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>308244</v>
+        <v>307379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>340187</v>
+        <v>340399</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8011751594396131</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7604155544578995</v>
+        <v>0.7582810141805313</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8392153295212261</v>
+        <v>0.8397394271993558</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>50652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37615</v>
+        <v>37541</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65909</v>
+        <v>67310</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09050846534662826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06721275133572407</v>
+        <v>0.06708170626260658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1177716558420664</v>
+        <v>0.1202745726958644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -3597,19 +3597,19 @@
         <v>112004</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92629</v>
+        <v>92968</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131890</v>
+        <v>132744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1507511393561164</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1246735803464422</v>
+        <v>0.1251287485832453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.177516726392711</v>
+        <v>0.1786657062216644</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>147</v>
@@ -3618,19 +3618,19 @@
         <v>162656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>138005</v>
+        <v>140410</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>190016</v>
+        <v>188604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1248692722726213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1059446797446546</v>
+        <v>0.1077913092369085</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1458734125890893</v>
+        <v>0.1447889309448579</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>60493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47505</v>
+        <v>46133</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78780</v>
+        <v>77299</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1080937849406581</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08488491685048921</v>
+        <v>0.08243311768992284</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1407698905921389</v>
+        <v>0.1381236588630141</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -3668,19 +3668,19 @@
         <v>102906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>85206</v>
+        <v>86512</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121907</v>
+        <v>124358</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1385051706466578</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1146820850083425</v>
+        <v>0.1164402114537864</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1640799677989869</v>
+        <v>0.1673780130375278</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>147</v>
@@ -3689,19 +3689,19 @@
         <v>163399</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>141023</v>
+        <v>140090</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>192287</v>
+        <v>190553</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1254396244103865</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1082617965508699</v>
+        <v>0.107545329711545</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.14761675040399</v>
+        <v>0.1462851659771111</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>448492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>427264</v>
+        <v>428171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>468190</v>
+        <v>469295</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8013977497127136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7634662251781578</v>
+        <v>0.7650878338277133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8365959784909052</v>
+        <v>0.8385699890444683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>498</v>
@@ -3739,19 +3739,19 @@
         <v>528065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>499650</v>
+        <v>501349</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>552579</v>
+        <v>552369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7107436899972257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6724990991997355</v>
+        <v>0.6747851656101267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.743738430343164</v>
+        <v>0.7434560118390338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>904</v>
@@ -3760,19 +3760,19 @@
         <v>976557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>941168</v>
+        <v>944417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1009635</v>
+        <v>1006310</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7496911033169922</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7225235749429935</v>
+        <v>0.7250180880999877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.775084703731141</v>
+        <v>0.7725323296245782</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>13460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8227</v>
+        <v>7850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20581</v>
+        <v>20998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09844022463621065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06017130293852125</v>
+        <v>0.05740863906226028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.150519171319735</v>
+        <v>0.1535653906269582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4125,19 +4125,19 @@
         <v>17558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10629</v>
+        <v>10530</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27562</v>
+        <v>26491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1012627091290769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06129909346909944</v>
+        <v>0.06073148873586006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1589610521905492</v>
+        <v>0.152784318796248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4146,19 +4146,19 @@
         <v>31018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21817</v>
+        <v>21650</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41690</v>
+        <v>43645</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1000182761633794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07035033163307723</v>
+        <v>0.06981026067194324</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1344284582240393</v>
+        <v>0.1407336513740891</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>9093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4509</v>
+        <v>4613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15793</v>
+        <v>15099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06649822476667473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03297537361267679</v>
+        <v>0.03373460285176664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1154986850136419</v>
+        <v>0.1104252027331899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -4196,19 +4196,19 @@
         <v>26007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18083</v>
+        <v>17370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37518</v>
+        <v>36710</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1499903360957018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1042925651075585</v>
+        <v>0.1001766259601188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2163768560585118</v>
+        <v>0.2117160184295989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -4217,19 +4217,19 @@
         <v>35100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25277</v>
+        <v>24677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48959</v>
+        <v>48242</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1131786774396008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08150536972442808</v>
+        <v>0.07957273017776231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1578694506328522</v>
+        <v>0.1555576481687975</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>114181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106614</v>
+        <v>105537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121859</v>
+        <v>122142</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8350615505971146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7797169160899292</v>
+        <v>0.7718418360847695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8912131294600186</v>
+        <v>0.8932849336856313</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -4267,19 +4267,19 @@
         <v>129826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115968</v>
+        <v>116566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139850</v>
+        <v>140640</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7487469547752212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6688243954754395</v>
+        <v>0.6722727025128145</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.806555997337013</v>
+        <v>0.8111170692373051</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>241</v>
@@ -4288,19 +4288,19 @@
         <v>244007</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>229511</v>
+        <v>228762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>256963</v>
+        <v>258188</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7868030463970198</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7400591903160572</v>
+        <v>0.7376459984912569</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8285787740592165</v>
+        <v>0.8325298896716324</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>10365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5965</v>
+        <v>5900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17572</v>
+        <v>17856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06283955465379522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03616346900363584</v>
+        <v>0.03576817168583007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1065332701993554</v>
+        <v>0.108257167371305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -4413,19 +4413,19 @@
         <v>18120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10280</v>
+        <v>9899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30666</v>
+        <v>28807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0826761564262314</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04690456231228864</v>
+        <v>0.04516857123386094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1399219142570013</v>
+        <v>0.1314404499589211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -4434,19 +4434,19 @@
         <v>28484</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19424</v>
+        <v>19057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41891</v>
+        <v>40768</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07415797959654731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05056914126273714</v>
+        <v>0.04961436568741902</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1090617566323726</v>
+        <v>0.1061381346808904</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>14324</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8262</v>
+        <v>8544</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22909</v>
+        <v>22902</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08684280611356507</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05009229845508727</v>
+        <v>0.05179815284616757</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1388925226669153</v>
+        <v>0.1388481819697294</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -4484,19 +4484,19 @@
         <v>36336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24801</v>
+        <v>24517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50732</v>
+        <v>48788</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1657940239246387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1131614167630361</v>
+        <v>0.1118660981528009</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2314787134669238</v>
+        <v>0.2226107477742714</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>44</v>
@@ -4505,19 +4505,19 @@
         <v>50660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37233</v>
+        <v>38319</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65002</v>
+        <v>66215</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1318910176562906</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09693346443186486</v>
+        <v>0.09976112296717192</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1692298462585727</v>
+        <v>0.1723881140090661</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>140252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130890</v>
+        <v>130632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148169</v>
+        <v>147854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8503176392326397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7935574151938989</v>
+        <v>0.7919927549340159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8983166284245411</v>
+        <v>0.8964056318396353</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -4555,19 +4555,19 @@
         <v>164708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148355</v>
+        <v>149864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178602</v>
+        <v>178649</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7515298196491299</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6769158741185035</v>
+        <v>0.6838036678002368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8149272616818256</v>
+        <v>0.8151415631342861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>288</v>
@@ -4576,19 +4576,19 @@
         <v>304960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288796</v>
+        <v>287096</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>321346</v>
+        <v>320090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7939510027471621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7518680975014903</v>
+        <v>0.7474438505084228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8366117312217357</v>
+        <v>0.8333416913417898</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>8592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3809</v>
+        <v>4273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14961</v>
+        <v>15463</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07469074285104028</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03311026655625657</v>
+        <v>0.03714375950322629</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1300583524719945</v>
+        <v>0.1344222603065853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -4701,19 +4701,19 @@
         <v>20380</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12245</v>
+        <v>11811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31276</v>
+        <v>30504</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1429238066156113</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0858751095600164</v>
+        <v>0.08282846027165262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2193347698584947</v>
+        <v>0.2139190466628374</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -4722,19 +4722,19 @@
         <v>28972</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20153</v>
+        <v>19059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42101</v>
+        <v>41094</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.112457007382026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07822395985223468</v>
+        <v>0.07397934570561254</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1634142528407899</v>
+        <v>0.1595082785975201</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>5645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2020</v>
+        <v>1876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11514</v>
+        <v>11229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04907493198600071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01756340848463768</v>
+        <v>0.01630587178242777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1000878225320888</v>
+        <v>0.09761653400859804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4772,19 +4772,19 @@
         <v>22557</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14560</v>
+        <v>13710</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33153</v>
+        <v>33572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1581891798148053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1021063039618742</v>
+        <v>0.09614284355665048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2324972543664005</v>
+        <v>0.2354311562217944</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -4793,19 +4793,19 @@
         <v>28202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18017</v>
+        <v>18251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40602</v>
+        <v>41761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1094684907718199</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06993172769332751</v>
+        <v>0.07084096339922595</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1575990523916414</v>
+        <v>0.1620954561291439</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>100798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93493</v>
+        <v>92839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106539</v>
+        <v>107078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.876234325162959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8127357881408834</v>
+        <v>0.8070538136366243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9261413936018008</v>
+        <v>0.9308255623637738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>84</v>
@@ -4843,19 +4843,19 @@
         <v>99658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87185</v>
+        <v>87346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111237</v>
+        <v>111869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6988870135695834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6114152225098912</v>
+        <v>0.6125411314299111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7800837902962729</v>
+        <v>0.784519618268673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>183</v>
@@ -4864,19 +4864,19 @@
         <v>200456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>183862</v>
+        <v>185328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>213302</v>
+        <v>213948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7780745018461541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7136630733275818</v>
+        <v>0.7193529176997039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8279352899015699</v>
+        <v>0.8304440104659263</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>6676</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2659</v>
+        <v>3049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13856</v>
+        <v>13240</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03823204448107189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01522758540857996</v>
+        <v>0.01746259826723956</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07935040590488977</v>
+        <v>0.07582164133179398</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4989,19 +4989,19 @@
         <v>14698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7596</v>
+        <v>7580</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26193</v>
+        <v>25205</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06053988666996134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03128688078874214</v>
+        <v>0.03122121394110903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078853994368593</v>
+        <v>0.1038198485069722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5010,19 +5010,19 @@
         <v>21374</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12605</v>
+        <v>13149</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33441</v>
+        <v>32904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05120744304033869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03019840014568695</v>
+        <v>0.03150309144712687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08011666006012458</v>
+        <v>0.07883027406145834</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>12764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7435</v>
+        <v>7013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21908</v>
+        <v>20528</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07309711753107984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04257760168375761</v>
+        <v>0.04016356762594492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1254605805375315</v>
+        <v>0.1175610764147797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -5060,19 +5060,19 @@
         <v>39634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28447</v>
+        <v>28806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54715</v>
+        <v>54144</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1632506566437911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1171721655814753</v>
+        <v>0.1186497021359451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2253692235429647</v>
+        <v>0.2230152417390983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -5081,19 +5081,19 @@
         <v>52398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39381</v>
+        <v>38649</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69443</v>
+        <v>69538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1255350938988027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0943474619014</v>
+        <v>0.09259421654130183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1663692935119553</v>
+        <v>0.1665980369385947</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>155178</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>145054</v>
+        <v>145663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>161693</v>
+        <v>162223</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8886708379878483</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.830691951707077</v>
+        <v>0.8341825296239196</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9259840047471686</v>
+        <v>0.9290155183678224</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>157</v>
@@ -5131,19 +5131,19 @@
         <v>188449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172085</v>
+        <v>173019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>202434</v>
+        <v>202027</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7762094566862475</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7088078640335785</v>
+        <v>0.7126538291729534</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8338140528714715</v>
+        <v>0.8321353748287492</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>326</v>
@@ -5152,19 +5152,19 @@
         <v>343628</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>325513</v>
+        <v>323616</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>358524</v>
+        <v>360236</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8232574630608586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7798583586349234</v>
+        <v>0.77531472213159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8589469187783599</v>
+        <v>0.8630482647508538</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>39093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29062</v>
+        <v>29997</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53615</v>
+        <v>52359</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06611049591069795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04914663216630341</v>
+        <v>0.05072884122736237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0906695067617083</v>
+        <v>0.08854480080657992</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -5277,19 +5277,19 @@
         <v>70756</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53359</v>
+        <v>52682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88232</v>
+        <v>90772</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09095392975087727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06859043723708724</v>
+        <v>0.06772116815166836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1134187349666733</v>
+        <v>0.1166843394457081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>99</v>
@@ -5298,19 +5298,19 @@
         <v>109849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>90546</v>
+        <v>89065</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131566</v>
+        <v>131769</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08022504790784506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06612789987296766</v>
+        <v>0.06504591317879024</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09608550872096951</v>
+        <v>0.09623397784581368</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>41826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31696</v>
+        <v>31087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56343</v>
+        <v>54726</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0707321699831529</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05360155891404233</v>
+        <v>0.05257069512172245</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09528245368099603</v>
+        <v>0.09254840867258556</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -5348,19 +5348,19 @@
         <v>124534</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>103088</v>
+        <v>102847</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>146498</v>
+        <v>147386</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1600838579455734</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1325158331099426</v>
+        <v>0.1322055614959096</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1883178377924776</v>
+        <v>0.189458584285868</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>145</v>
@@ -5369,19 +5369,19 @@
         <v>166360</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>141983</v>
+        <v>143491</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191986</v>
+        <v>192918</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1214964505528853</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1036933367393525</v>
+        <v>0.104794337734605</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1402114200852777</v>
+        <v>0.1408919130155082</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>510409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>494457</v>
+        <v>494789</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>526117</v>
+        <v>525322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8631573341061491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8361799478138719</v>
+        <v>0.8367421592812853</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8897217928248695</v>
+        <v>0.8883771092004543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>500</v>
@@ -5419,19 +5419,19 @@
         <v>582641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>556920</v>
+        <v>552626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>606966</v>
+        <v>609716</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7489622123035493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7158991537845026</v>
+        <v>0.710378649355128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7802317059902845</v>
+        <v>0.7837662064635542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1038</v>
@@ -5440,19 +5440,19 @@
         <v>1093050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1061370</v>
+        <v>1064110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1125016</v>
+        <v>1125038</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7982785015392696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.77514216121471</v>
+        <v>0.7771431740235821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8216240988430077</v>
+        <v>0.8216401704103182</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>17772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12348</v>
+        <v>11844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24861</v>
+        <v>24623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1088232553403427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07560911749922949</v>
+        <v>0.07252237745008229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1522278296777033</v>
+        <v>0.1507707394988776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -5805,19 +5805,19 @@
         <v>39988</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32056</v>
+        <v>32631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48002</v>
+        <v>47958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2093293916151024</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1678045485747584</v>
+        <v>0.1708154029444703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2512823808309098</v>
+        <v>0.2510491738284783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -5826,19 +5826,19 @@
         <v>57760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49139</v>
+        <v>48937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69892</v>
+        <v>68653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1630068450418482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1386758695587589</v>
+        <v>0.1381072333584072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1972438864954683</v>
+        <v>0.1937471906192602</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>20257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14390</v>
+        <v>14299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27849</v>
+        <v>28170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.124035913123888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08811379915337511</v>
+        <v>0.08755555473294588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1705215568546718</v>
+        <v>0.1724911247104409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -5876,19 +5876,19 @@
         <v>34115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27769</v>
+        <v>27275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41285</v>
+        <v>41821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1785841094146938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1453635506195194</v>
+        <v>0.1427809034825639</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2161183185600922</v>
+        <v>0.218926299438137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -5897,19 +5897,19 @@
         <v>54372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45083</v>
+        <v>46245</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63928</v>
+        <v>65504</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1534432428285964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1272293935922406</v>
+        <v>0.1305091041293642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1804131261756957</v>
+        <v>0.1848605318500585</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>125285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115718</v>
+        <v>115732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134543</v>
+        <v>132801</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7671408315357693</v>
+        <v>0.7671408315357694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7085591038146345</v>
+        <v>0.7086451917730838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8238297809597251</v>
+        <v>0.8131613151507876</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>274</v>
@@ -5947,19 +5947,19 @@
         <v>116926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>107268</v>
+        <v>107743</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126129</v>
+        <v>125389</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6120864989702037</v>
+        <v>0.6120864989702038</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5615286817292167</v>
+        <v>0.5640137638360208</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6602604477574192</v>
+        <v>0.656388747455643</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>466</v>
@@ -5968,19 +5968,19 @@
         <v>242211</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>229107</v>
+        <v>228351</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>255251</v>
+        <v>254688</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6835499121295554</v>
+        <v>0.6835499121295555</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6465673576734753</v>
+        <v>0.6444360797350213</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7203511743519411</v>
+        <v>0.7187622136807293</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>11211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6862</v>
+        <v>7116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16604</v>
+        <v>17495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06291041114520528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03850911172881941</v>
+        <v>0.03992969702952121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0931745378632961</v>
+        <v>0.0981736001966045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -6093,19 +6093,19 @@
         <v>39426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31379</v>
+        <v>31429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48942</v>
+        <v>48970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1628901544416239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1296439920152349</v>
+        <v>0.1298505647321742</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.202204257370132</v>
+        <v>0.2023209896565985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -6114,19 +6114,19 @@
         <v>50637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41095</v>
+        <v>41491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61590</v>
+        <v>62300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1204938644689763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09778975593143803</v>
+        <v>0.09873085459892392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1465590863673526</v>
+        <v>0.1482472034917034</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>18837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12599</v>
+        <v>12380</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27214</v>
+        <v>26455</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1057064350953123</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07070115023186328</v>
+        <v>0.06947222359751275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1527098815558129</v>
+        <v>0.1484546878810263</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>84</v>
@@ -6164,19 +6164,19 @@
         <v>45595</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37319</v>
+        <v>37084</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55012</v>
+        <v>55592</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1883781451743014</v>
+        <v>0.1883781451743013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1541834964419425</v>
+        <v>0.153213772260481</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2272856661343993</v>
+        <v>0.2296800595865757</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>110</v>
@@ -6185,19 +6185,19 @@
         <v>64432</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54802</v>
+        <v>54267</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76947</v>
+        <v>75900</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1533213058838465</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1304054693169108</v>
+        <v>0.1291332891390516</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1831020130639475</v>
+        <v>0.180609896825121</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>148156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139308</v>
+        <v>139740</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156020</v>
+        <v>155638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8313831537594825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7817354472112067</v>
+        <v>0.7841600489105559</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8755148312432788</v>
+        <v>0.8733699260514972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>293</v>
@@ -6235,19 +6235,19 @@
         <v>157019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145753</v>
+        <v>145352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166931</v>
+        <v>167487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6487317003840748</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6021865828901469</v>
+        <v>0.6005286112952005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6896831154652869</v>
+        <v>0.6919811381570256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>501</v>
@@ -6256,19 +6256,19 @@
         <v>305174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289981</v>
+        <v>291326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317815</v>
+        <v>318769</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7261848296471771</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6900317862201305</v>
+        <v>0.6932329179758583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7562659208500173</v>
+        <v>0.7585338024919634</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>7124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3206</v>
+        <v>2858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13302</v>
+        <v>13517</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0448466151282961</v>
+        <v>0.04484661512829611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02018375627960898</v>
+        <v>0.0179926234571835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08373482175410947</v>
+        <v>0.08508817793820445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6381,19 +6381,19 @@
         <v>22485</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15939</v>
+        <v>15895</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30114</v>
+        <v>30652</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1285539822224042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09112554355061493</v>
+        <v>0.09087409424820209</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1721670652278276</v>
+        <v>0.1752455748234487</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -6402,19 +6402,19 @@
         <v>29609</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21261</v>
+        <v>21281</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39703</v>
+        <v>39653</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0887134344216288</v>
+        <v>0.08871343442162877</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06370045248300284</v>
+        <v>0.06376119703188737</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1189547714216743</v>
+        <v>0.118805936489937</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>11502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6996</v>
+        <v>6790</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18060</v>
+        <v>18505</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07240382549269372</v>
+        <v>0.07240382549269374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04403733653273991</v>
+        <v>0.04274110410315241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1136914503759277</v>
+        <v>0.1164868585777423</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -6452,19 +6452,19 @@
         <v>26244</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19494</v>
+        <v>20058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33612</v>
+        <v>33439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1500422976016567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1114524841572797</v>
+        <v>0.1146741772781358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1921694686006036</v>
+        <v>0.1911799624095364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -6473,19 +6473,19 @@
         <v>37745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29488</v>
+        <v>29555</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48535</v>
+        <v>47863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1130902422854404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08835117847906887</v>
+        <v>0.08854976589250874</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1454173267922325</v>
+        <v>0.1434032248826503</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>140229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132390</v>
+        <v>131282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146759</v>
+        <v>146601</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.88274955937901</v>
+        <v>0.8827495593790102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8333987043074745</v>
+        <v>0.8264263021782821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9238559089636255</v>
+        <v>0.9228576421177493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -6523,19 +6523,19 @@
         <v>126180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116493</v>
+        <v>117319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134833</v>
+        <v>135128</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.721403720175939</v>
+        <v>0.7214037201759391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6660225180247477</v>
+        <v>0.6707418102580969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7708748478463504</v>
+        <v>0.7725620674383483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>377</v>
@@ -6544,19 +6544,19 @@
         <v>266409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254021</v>
+        <v>253905</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>278944</v>
+        <v>278215</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.798196323292931</v>
+        <v>0.7981963232929309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7610792295083172</v>
+        <v>0.760731128635903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8357529727266706</v>
+        <v>0.8335683128863637</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>12124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7487</v>
+        <v>7484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18091</v>
+        <v>18113</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05685125831371899</v>
+        <v>0.05685125831371898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03510891370965122</v>
+        <v>0.03509356212214187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08482770706304532</v>
+        <v>0.08493371529479909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -6669,19 +6669,19 @@
         <v>37715</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29141</v>
+        <v>28603</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48489</v>
+        <v>47671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1276876865130605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0986614829520607</v>
+        <v>0.09683801399011226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1641648325977178</v>
+        <v>0.1613966999494615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -6690,19 +6690,19 @@
         <v>49839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39472</v>
+        <v>38906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61752</v>
+        <v>62525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09798676988082722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07760511563060642</v>
+        <v>0.07649128075971715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1214098886749099</v>
+        <v>0.1229284953855413</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>17997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12226</v>
+        <v>12130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25385</v>
+        <v>25836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08438705178913072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05733086318349891</v>
+        <v>0.05687950423660232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1190340861173206</v>
+        <v>0.1211482746677285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -6740,19 +6740,19 @@
         <v>47970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38474</v>
+        <v>38864</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58134</v>
+        <v>58790</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1624101371107373</v>
+        <v>0.1624101371107372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1302570969507421</v>
+        <v>0.1315798360706302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1968202318307803</v>
+        <v>0.1990428019569276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -6761,19 +6761,19 @@
         <v>65967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54051</v>
+        <v>55228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78087</v>
+        <v>78775</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1296959360783904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1062687028514819</v>
+        <v>0.1085828566055031</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1535254450379917</v>
+        <v>0.1548782609571925</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>183141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174862</v>
+        <v>173718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190854</v>
+        <v>190529</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8587616898971504</v>
+        <v>0.8587616898971501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.819940079424042</v>
+        <v>0.8145740999469341</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8949264000266444</v>
+        <v>0.8934052315556286</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>382</v>
@@ -6811,19 +6811,19 @@
         <v>209681</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>197013</v>
+        <v>196804</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>222261</v>
+        <v>221982</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7099021763762023</v>
+        <v>0.7099021763762021</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6670147350759158</v>
+        <v>0.6663041228311315</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7524932504731441</v>
+        <v>0.7515503267357284</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>658</v>
@@ -6832,19 +6832,19 @@
         <v>392821</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>378802</v>
+        <v>376596</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>407972</v>
+        <v>406481</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7723172940407824</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7447531582284587</v>
+        <v>0.7404175557216579</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8021037643937919</v>
+        <v>0.7991739599621024</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>48232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37591</v>
+        <v>38254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59977</v>
+        <v>60183</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06758578435871293</v>
+        <v>0.06758578435871294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05267498028141861</v>
+        <v>0.05360382660976546</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08404452757589176</v>
+        <v>0.08433275710372994</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -6957,19 +6957,19 @@
         <v>139614</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123544</v>
+        <v>122984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>157087</v>
+        <v>156058</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1545521737692366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1367630416819726</v>
+        <v>0.1361432367425532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1738949906103811</v>
+        <v>0.1727556857042131</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>336</v>
@@ -6978,19 +6978,19 @@
         <v>187845</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>167032</v>
+        <v>168073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207418</v>
+        <v>207701</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1161705521420127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1032989107583695</v>
+        <v>0.1039424521965869</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1282753429142347</v>
+        <v>0.1284502466083355</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>68592</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56342</v>
+        <v>56570</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>83674</v>
+        <v>82347</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09611688732438781</v>
+        <v>0.09611688732438782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07895029810417634</v>
+        <v>0.07926963199412468</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.117250001790881</v>
+        <v>0.1153911255680563</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>292</v>
@@ -7028,19 +7028,19 @@
         <v>153924</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137950</v>
+        <v>137104</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>170221</v>
+        <v>171498</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1703935237262024</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1527110640703392</v>
+        <v>0.1517740103642534</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1884340228817766</v>
+        <v>0.1898481916975579</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>392</v>
@@ -7049,19 +7049,19 @@
         <v>222516</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>202155</v>
+        <v>203364</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>243538</v>
+        <v>244845</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.137612379499783</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1250204141399238</v>
+        <v>0.1257681416093145</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1506132021865104</v>
+        <v>0.1514211111135787</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>596811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>578657</v>
+        <v>578677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>612159</v>
+        <v>610870</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8362973283168991</v>
+        <v>0.8362973283168993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8108580420035443</v>
+        <v>0.8108872176854679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8578046628765015</v>
+        <v>0.855997802904096</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1157</v>
@@ -7099,19 +7099,19 @@
         <v>609806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>587768</v>
+        <v>588378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>628787</v>
+        <v>629903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.675054302504561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6506583420956371</v>
+        <v>0.6513341156984177</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6960666795961227</v>
+        <v>0.6973016740830115</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2002</v>
@@ -7120,19 +7120,19 @@
         <v>1206617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1178500</v>
+        <v>1178088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1234856</v>
+        <v>1233805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7462170683582044</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7288286903715335</v>
+        <v>0.7285736905424667</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7636816633682177</v>
+        <v>0.7630314826458122</v>
       </c>
     </row>
     <row r="23">
